--- a/Programs/R/horario.xlsx
+++ b/Programs/R/horario.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="1431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="1430">
   <si>
     <t>Materia</t>
   </si>
@@ -4316,9 +4316,6 @@
   </si>
   <si>
     <t>Zeus Alberto Valtierra Quintal</t>
-  </si>
-  <si>
-    <t>*</t>
   </si>
 </sst>
 </file>
@@ -4656,10 +4653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4668,7 +4665,7 @@
     <col min="2" max="2" width="41.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4679,7 +4676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4690,7 +4687,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4701,7 +4698,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -4712,7 +4709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -4723,7 +4720,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -4734,7 +4731,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -4744,11 +4741,8 @@
       <c r="C7">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -4759,7 +4753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -4769,11 +4763,8 @@
       <c r="C9">
         <v>8</v>
       </c>
-      <c r="D9" t="s">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -4784,7 +4775,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -4794,11 +4785,8 @@
       <c r="C11">
         <v>13</v>
       </c>
-      <c r="D11" t="s">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -4809,7 +4797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -4820,7 +4808,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -4831,7 +4819,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -4842,7 +4830,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>125</v>
       </c>
